--- a/relatorio/dadosTempo.xlsx
+++ b/relatorio/dadosTempo.xlsx
@@ -8,13 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duartecruz/Desktop/FACULDADE/2_ano/ASA/proj2/projeto2ASA/relatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83D6A1-E3CF-034F-8741-9A76E14B2010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A493F09B-FBB5-9841-B26E-413B6E53FAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{7E32DEC1-026A-4E46-A36E-0A0E4FE1F4F7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{7E32DEC1-026A-4E46-A36E-0A0E4FE1F4F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Folha1!$H$2:$H$28</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Folha1!$I$2:$I$28</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Folha1!$I$2:$I$28</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Folha1!$J$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Folha1!$J$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Folha1!$H$2:$H$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Folha1!$I$2:$I$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Folha1!$J$23</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Folha1!$H$2:$H$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Folha1!$I$2:$I$28</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Folha1!$J$23</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Folha1!$H$2:$H$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>N - número de estações</t>
   </si>
@@ -134,9 +148,6 @@
     <t>Complexidade teórica</t>
   </si>
   <si>
-    <t>TEORICA</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -216,6 +227,34 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝑀𝐿+𝑀𝑙𝑜𝑔(𝑁)+𝐿^2 𝑁𝑙𝑜𝑔(𝑁) VS Tempo </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -248,8 +287,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -259,9 +298,6 @@
               <c:f>Folha1!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TEORICA</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -277,97 +313,97 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Folha1!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1080118200000</c:v>
+                  <c:v>3691200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1080209400000</c:v>
+                  <c:v>3782400000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1080300600000</c:v>
+                  <c:v>3873600000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2322674487967.5483</c:v>
+                  <c:v>7833144301.1938658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2322765778276.5474</c:v>
+                  <c:v>7924434610.192565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2322857068585.5459</c:v>
+                  <c:v>8015724919.1912642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3626586559459.3032</c:v>
+                  <c:v>12179570524.119505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3626677902595.6797</c:v>
+                  <c:v>12270913660.495922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3626769245732.0562</c:v>
+                  <c:v>12362256796.872337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8640397200000</c:v>
+                  <c:v>14581200000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8640578400000</c:v>
+                  <c:v>14762400000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8640759600000</c:v>
+                  <c:v>14943600000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18580846871577.398</c:v>
+                  <c:v>31148706277.779366</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18581028161886.395</c:v>
+                  <c:v>31329996586.778065</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18581209452195.395</c:v>
+                  <c:v>31511286895.776764</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29012143073719.789</c:v>
+                  <c:v>32671200000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29012324416856.168</c:v>
+                  <c:v>32942400000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29012505759992.543</c:v>
+                  <c:v>33213600000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29161000200000</c:v>
+                  <c:v>48534252687.348778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29161271400000</c:v>
+                  <c:v>48715595823.725189</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29161542600000</c:v>
+                  <c:v>48896938960.101608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62710017627089.844</c:v>
+                  <c:v>69947976238.755203</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62710288917398.844</c:v>
+                  <c:v>70219266547.753906</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62710560207707.844</c:v>
+                  <c:v>70490556856.752594</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97915642183855.391</c:v>
+                  <c:v>109065389626.06422</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>97915913526991.766</c:v>
+                  <c:v>109336732762.44064</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97916184870128.141</c:v>
+                  <c:v>109608075898.81705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Folha1!$I$2:$I$28</c:f>
               <c:numCache>
@@ -419,22 +455,22 @@
                   <c:v>7.165</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.778</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.839</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>4.0970000000000004</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>6.734</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.9809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.778</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.5939999999999999</c:v>
@@ -456,7 +492,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -472,11 +508,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="630410992"/>
         <c:axId val="630412704"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="630410992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -497,6 +532,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>𝑀𝐿+𝑀𝑙𝑜𝑔(𝑁)+𝐿^2 𝑁𝑙𝑜𝑔(𝑁))</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -536,11 +629,8 @@
         </c:txPr>
         <c:crossAx val="630412704"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="630412704"/>
         <c:scaling>
@@ -564,6 +654,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -603,7 +753,7 @@
         </c:txPr>
         <c:crossAx val="630410992"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -672,12 +822,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Gráfico 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38448600174978131"/>
-          <c:y val="0.1388888888888889"/>
+          <c:x val="0.42079693079419478"/>
+          <c:y val="4.376021464031269E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -737,85 +912,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>363000000</c:v>
+                  <c:v>102000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393092699.60975832</c:v>
+                  <c:v>115806179.97398388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411940912.92476958</c:v>
+                  <c:v>130294091.29247697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>723000000</c:v>
+                  <c:v>192000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>726000000</c:v>
+                  <c:v>204000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>780185399.21951663</c:v>
+                  <c:v>205806179.97398388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>786185399.21951663</c:v>
+                  <c:v>220294091.29247695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>814881825.84953916</c:v>
+                  <c:v>231612359.94796777</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>823881825.84953916</c:v>
+                  <c:v>260588182.58495393</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1083000000</c:v>
+                  <c:v>282000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1089000000</c:v>
+                  <c:v>295806179.97398388</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1167278098.8292751</c:v>
+                  <c:v>306000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1179278098.8292749</c:v>
+                  <c:v>310294091.29247695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1217822738.7743087</c:v>
+                  <c:v>347418539.92195165</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1235822738.7743089</c:v>
+                  <c:v>384000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1446000000</c:v>
+                  <c:v>390882273.87743092</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1560370798.4390333</c:v>
+                  <c:v>411612359.94796777</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1629763651.6990783</c:v>
+                  <c:v>440588182.5849539</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2166000000</c:v>
+                  <c:v>564000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2169000000</c:v>
+                  <c:v>576000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2334556197.6585503</c:v>
+                  <c:v>591612359.94796777</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2340556197.6585498</c:v>
+                  <c:v>617418539.92195165</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2435645477.5486174</c:v>
+                  <c:v>620588182.5849539</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2444645477.5486178</c:v>
+                  <c:v>660882273.87743092</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3249000000</c:v>
+                  <c:v>846000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3501834296.4878249</c:v>
+                  <c:v>887418539.92195165</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3653468216.322927</c:v>
+                  <c:v>930882273.87743092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,10 +1020,10 @@
                   <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2.4140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.8180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.839</c:v>
@@ -857,22 +1032,22 @@
                   <c:v>6.0629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>4.6630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.4550000000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.6630000000000003</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>4.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2.5939999999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.1050000000000004</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>4.601</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.601</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4.2889999999999997</c:v>
@@ -949,6 +1124,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>𝑀𝐿+𝑀𝑙𝑜𝑔(𝑁)+𝐿𝑁𝑙𝑜𝑔(𝑁)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1011,6 +1250,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1174,7 +1468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5817,10 +6111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E33325-A7D4-9746-9686-DF17AB0744B1}">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="93" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5862,8 +6156,8 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <f>B2*C2 + B2*LOG10(A2) + C2^3*A2*LOG10(A2) + C2^3</f>
-        <v>1080118200000</v>
+        <f>B2*C2 + B2*LOG10(A2) + C2^2*A2*LOG10(A2)</f>
+        <v>3691200000</v>
       </c>
       <c r="I2">
         <v>1.1599999999999999</v>
@@ -5883,8 +6177,8 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <f>B3*C3 + B3*LOG10(A3) + C3^3*A3*LOG10(A3) + C3^3</f>
-        <v>1080209400000</v>
+        <f>B3*C3 + B3*LOG10(A3) + C3^2*A3*LOG10(A3)</f>
+        <v>3782400000</v>
       </c>
       <c r="I3">
         <v>3.173</v>
@@ -5904,8 +6198,8 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <f>B4*C4 + B4*LOG10(A4) + C4^3*A4*LOG10(A4) + C4^3</f>
-        <v>1080300600000</v>
+        <f>B4*C4 + B4*LOG10(A4) + C4^2*A4*LOG10(A4)</f>
+        <v>3873600000</v>
       </c>
       <c r="I4">
         <v>6.0629999999999997</v>
@@ -5925,8 +6219,8 @@
         <v>14</v>
       </c>
       <c r="H5">
-        <f>B5*C5 + B5*LOG10(A5) + C5^3*A5*LOG10(A5) + C5^3</f>
-        <v>2322674487967.5483</v>
+        <f>B5*C5 + B5*LOG10(A5) + C5^2*A5*LOG10(A5)</f>
+        <v>7833144301.1938658</v>
       </c>
       <c r="I5">
         <v>1.0640000000000001</v>
@@ -5946,8 +6240,8 @@
         <v>17</v>
       </c>
       <c r="H6">
-        <f>B6*C6 + B6*LOG10(A6) + C6^3*A6*LOG10(A6) + C6^3</f>
-        <v>2322765778276.5474</v>
+        <f>B6*C6 + B6*LOG10(A6) + C6^2*A6*LOG10(A6)</f>
+        <v>7924434610.192565</v>
       </c>
       <c r="I6">
         <v>2.62</v>
@@ -5967,8 +6261,8 @@
         <v>13</v>
       </c>
       <c r="H7">
-        <f>B7*C7 + B7*LOG10(A7) + C7^3*A7*LOG10(A7) + C7^3</f>
-        <v>2322857068585.5459</v>
+        <f>B7*C7 + B7*LOG10(A7) + C7^2*A7*LOG10(A7)</f>
+        <v>8015724919.1912642</v>
       </c>
       <c r="I7">
         <v>4.6630000000000003</v>
@@ -5988,8 +6282,8 @@
         <v>22</v>
       </c>
       <c r="H8">
-        <f>B8*C8 + B8*LOG10(A8) + C8^3*A8*LOG10(A8) + C8^3</f>
-        <v>3626586559459.3032</v>
+        <f>B8*C8 + B8*LOG10(A8) + C8^2*A8*LOG10(A8)</f>
+        <v>12179570524.119505</v>
       </c>
       <c r="I8">
         <v>1.028</v>
@@ -6009,8 +6303,8 @@
         <v>25</v>
       </c>
       <c r="H9">
-        <f>B9*C9 + B9*LOG10(A9) + C9^3*A9*LOG10(A9) + C9^3</f>
-        <v>3626677902595.6797</v>
+        <f>B9*C9 + B9*LOG10(A9) + C9^2*A9*LOG10(A9)</f>
+        <v>12270913660.495922</v>
       </c>
       <c r="I9">
         <v>2.4140000000000001</v>
@@ -6030,8 +6324,8 @@
         <v>28</v>
       </c>
       <c r="H10">
-        <f>B10*C10 + B10*LOG10(A10) + C10^3*A10*LOG10(A10) + C10^3</f>
-        <v>3626769245732.0562</v>
+        <f>B10*C10 + B10*LOG10(A10) + C10^2*A10*LOG10(A10)</f>
+        <v>12362256796.872337</v>
       </c>
       <c r="I10">
         <v>4.1050000000000004</v>
@@ -6051,8 +6345,8 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <f>B11*C11 + B11*LOG10(A11) + C11^3*A11*LOG10(A11) + C11^3</f>
-        <v>8640397200000</v>
+        <f>B11*C11 + B11*LOG10(A11) + C11^2*A11*LOG10(A11)</f>
+        <v>14581200000</v>
       </c>
       <c r="I11">
         <v>1.85</v>
@@ -6072,8 +6366,8 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <f>B12*C12 + B12*LOG10(A12) + C12^3*A12*LOG10(A12) + C12^3</f>
-        <v>8640578400000</v>
+        <f>B12*C12 + B12*LOG10(A12) + C12^2*A12*LOG10(A12)</f>
+        <v>14762400000</v>
       </c>
       <c r="I12">
         <v>4.601</v>
@@ -6093,8 +6387,8 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <f>B13*C13 + B13*LOG10(A13) + C13^3*A13*LOG10(A13) + C13^3</f>
-        <v>8640759600000</v>
+        <f>B13*C13 + B13*LOG10(A13) + C13^2*A13*LOG10(A13)</f>
+        <v>14943600000</v>
       </c>
       <c r="I13">
         <v>8.5449999999999999</v>
@@ -6114,8 +6408,8 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <f>B14*C14 + B14*LOG10(A14) + C14^3*A14*LOG10(A14) + C14^3</f>
-        <v>18580846871577.398</v>
+        <f>B14*C14 + B14*LOG10(A14) + C14^2*A14*LOG10(A14)</f>
+        <v>31148706277.779366</v>
       </c>
       <c r="I14">
         <v>1.8180000000000001</v>
@@ -6135,8 +6429,8 @@
         <v>18</v>
       </c>
       <c r="H15">
-        <f>B15*C15 + B15*LOG10(A15) + C15^3*A15*LOG10(A15) + C15^3</f>
-        <v>18581028161886.395</v>
+        <f>B15*C15 + B15*LOG10(A15) + C15^2*A15*LOG10(A15)</f>
+        <v>31329996586.778065</v>
       </c>
       <c r="I15">
         <v>4.2889999999999997</v>
@@ -6156,140 +6450,140 @@
         <v>20</v>
       </c>
       <c r="H16">
-        <f>B16*C16 + B16*LOG10(A16) + C16^3*A16*LOG10(A16) + C16^3</f>
-        <v>18581209452195.395</v>
+        <f>B16*C16 + B16*LOG10(A16) + C16^2*A16*LOG10(A16)</f>
+        <v>31511286895.776764</v>
       </c>
       <c r="I16">
         <v>7.165</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="B17">
         <v>300000</v>
       </c>
       <c r="C17">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <f>B17*C17 + B17*LOG10(A17) + C17^3*A17*LOG10(A17) + C17^3</f>
-        <v>29012143073719.789</v>
+        <f>B17*C17 + B17*LOG10(A17) + C17^2*A17*LOG10(A17)</f>
+        <v>32671200000</v>
       </c>
       <c r="I17">
-        <v>1.839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.4550000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="B18">
         <v>600000</v>
       </c>
       <c r="C18">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H18">
-        <f>B18*C18 + B18*LOG10(A18) + C18^3*A18*LOG10(A18) + C18^3</f>
-        <v>29012324416856.168</v>
+        <f>B18*C18 + B18*LOG10(A18) + C18^2*A18*LOG10(A18)</f>
+        <v>32942400000</v>
       </c>
       <c r="I18">
-        <v>4.0970000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.9809999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="B19">
         <v>900000</v>
       </c>
       <c r="C19">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <f>B19*C19 + B19*LOG10(A19) + C19^3*A19*LOG10(A19) + C19^3</f>
-        <v>29012505759992.543</v>
+        <f>B19*C19 + B19*LOG10(A19) + C19^2*A19*LOG10(A19)</f>
+        <v>33213600000</v>
       </c>
       <c r="I19">
-        <v>6.734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10.778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="B20">
         <v>300000</v>
       </c>
       <c r="C20">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <f>B20*C20 + B20*LOG10(A20) + C20^3*A20*LOG10(A20) + C20^3</f>
-        <v>29161000200000</v>
+        <f>B20*C20 + B20*LOG10(A20) + C20^2*A20*LOG10(A20)</f>
+        <v>48534252687.348778</v>
       </c>
       <c r="I20">
-        <v>2.4550000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="B21">
         <v>600000</v>
       </c>
       <c r="C21">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H21">
-        <f>B21*C21 + B21*LOG10(A21) + C21^3*A21*LOG10(A21) + C21^3</f>
-        <v>29161271400000</v>
+        <f>B21*C21 + B21*LOG10(A21) + C21^2*A21*LOG10(A21)</f>
+        <v>48715595823.725189</v>
       </c>
       <c r="I21">
-        <v>5.9809999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.0970000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="B22">
         <v>900000</v>
       </c>
       <c r="C22">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <f>B22*C22 + B22*LOG10(A22) + C22^3*A22*LOG10(A22) + C22^3</f>
-        <v>29161542600000</v>
+        <f>B22*C22 + B22*LOG10(A22) + C22^2*A22*LOG10(A22)</f>
+        <v>48896938960.101608</v>
       </c>
       <c r="I22">
-        <v>10.778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20000</v>
       </c>
@@ -6303,17 +6597,14 @@
         <v>16</v>
       </c>
       <c r="H23">
-        <f>B23*C23 + B23*LOG10(A23) + C23^3*A23*LOG10(A23) + C23^3</f>
-        <v>62710017627089.844</v>
+        <f>B23*C23 + B23*LOG10(A23) + C23^2*A23*LOG10(A23)</f>
+        <v>69947976238.755203</v>
       </c>
       <c r="I23">
         <v>2.5939999999999999</v>
       </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20000</v>
       </c>
@@ -6327,14 +6618,14 @@
         <v>19</v>
       </c>
       <c r="H24">
-        <f>B24*C24 + B24*LOG10(A24) + C24^3*A24*LOG10(A24) + C24^3</f>
-        <v>62710288917398.844</v>
+        <f>B24*C24 + B24*LOG10(A24) + C24^2*A24*LOG10(A24)</f>
+        <v>70219266547.753906</v>
       </c>
       <c r="I24">
         <v>5.86</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20000</v>
       </c>
@@ -6348,14 +6639,14 @@
         <v>21</v>
       </c>
       <c r="H25">
-        <f>B25*C25 + B25*LOG10(A25) + C25^3*A25*LOG10(A25) + C25^3</f>
-        <v>62710560207707.844</v>
+        <f>B25*C25 + B25*LOG10(A25) + C25^2*A25*LOG10(A25)</f>
+        <v>70490556856.752594</v>
       </c>
       <c r="I25">
         <v>9.4890000000000008</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>30000</v>
       </c>
@@ -6369,14 +6660,14 @@
         <v>24</v>
       </c>
       <c r="H26">
-        <f>B26*C26 + B26*LOG10(A26) + C26^3*A26*LOG10(A26) + C26^3</f>
-        <v>97915642183855.391</v>
+        <f>B26*C26 + B26*LOG10(A26) + C26^2*A26*LOG10(A26)</f>
+        <v>109065389626.06422</v>
       </c>
       <c r="I26">
         <v>2.68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30000</v>
       </c>
@@ -6390,14 +6681,14 @@
         <v>27</v>
       </c>
       <c r="H27">
-        <f>B27*C27 + B27*LOG10(A27) + C27^3*A27*LOG10(A27) + C27^3</f>
-        <v>97915913526991.766</v>
+        <f>B27*C27 + B27*LOG10(A27) + C27^2*A27*LOG10(A27)</f>
+        <v>109336732762.44064</v>
       </c>
       <c r="I27">
         <v>6.085</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30000</v>
       </c>
@@ -6411,8 +6702,8 @@
         <v>30</v>
       </c>
       <c r="H28">
-        <f>B28*C28 + B28*LOG10(A28) + C28^3*A28*LOG10(A28) + C28^3</f>
-        <v>97916184870128.141</v>
+        <f>B28*C28 + B28*LOG10(A28) + C28^2*A28*LOG10(A28)</f>
+        <v>109608075898.81705</v>
       </c>
       <c r="I28">
         <v>9.6389999999999993</v>
@@ -6420,19 +6711,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -6449,8 +6740,8 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H35">
-        <f>(LOG10(A35)*C35)*B35 + (C35)*A35</f>
-        <v>363000000</v>
+        <f>(C35)*A35*LOG10(A35) + B35*C35</f>
+        <v>102000000</v>
       </c>
       <c r="I35">
         <v>1.1599999999999999</v>
@@ -6470,8 +6761,8 @@
         <v>1.0640000000000001</v>
       </c>
       <c r="H36">
-        <f>(LOG10(A36)*C36)*B36 + (C36)*A36</f>
-        <v>393092699.60975832</v>
+        <f>(C36)*A36*LOG10(A36) + B36*C36</f>
+        <v>115806179.97398388</v>
       </c>
       <c r="I36">
         <v>1.0640000000000001</v>
@@ -6491,8 +6782,8 @@
         <v>1.028</v>
       </c>
       <c r="H37">
-        <f>(LOG10(A37)*C37)*B37 + (C37)*A37</f>
-        <v>411940912.92476958</v>
+        <f>(C37)*A37*LOG10(A37) + B37*C37</f>
+        <v>130294091.29247697</v>
       </c>
       <c r="I37">
         <v>1.028</v>
@@ -6512,8 +6803,8 @@
         <v>3.173</v>
       </c>
       <c r="H38">
-        <f>(LOG10(A38)*C38)*B38 + (C38)*A38</f>
-        <v>723000000</v>
+        <f>(C38)*A38*LOG10(A38) + B38*C38</f>
+        <v>192000000</v>
       </c>
       <c r="I38">
         <v>3.173</v>
@@ -6533,8 +6824,8 @@
         <v>1.85</v>
       </c>
       <c r="H39">
-        <f>(LOG10(A39)*C39)*B39 + (C39)*A39</f>
-        <v>726000000</v>
+        <f>(C39)*A39*LOG10(A39) + B39*C39</f>
+        <v>204000000</v>
       </c>
       <c r="I39">
         <v>1.85</v>
@@ -6554,8 +6845,8 @@
         <v>2.62</v>
       </c>
       <c r="H40">
-        <f>(LOG10(A40)*C40)*B40 + (C40)*A40</f>
-        <v>780185399.21951663</v>
+        <f>(C40)*A40*LOG10(A40) + B40*C40</f>
+        <v>205806179.97398388</v>
       </c>
       <c r="I40">
         <v>2.62</v>
@@ -6563,44 +6854,44 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="B41">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="C41">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E41">
-        <v>1.8180000000000001</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="H41">
-        <f>(LOG10(A41)*C41)*B41 + (C41)*A41</f>
-        <v>786185399.21951663</v>
+        <f>(C41)*A41*LOG10(A41) + B41*C41</f>
+        <v>220294091.29247695</v>
       </c>
       <c r="I41">
-        <v>1.8180000000000001</v>
+        <v>2.4140000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B42">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="C42">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E42">
-        <v>2.4140000000000001</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="H42">
-        <f>(LOG10(A42)*C42)*B42 + (C42)*A42</f>
-        <v>814881825.84953916</v>
+        <f>(C42)*A42*LOG10(A42) + B42*C42</f>
+        <v>231612359.94796777</v>
       </c>
       <c r="I42">
-        <v>2.4140000000000001</v>
+        <v>1.8180000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -6617,8 +6908,8 @@
         <v>1.839</v>
       </c>
       <c r="H43">
-        <f>(LOG10(A43)*C43)*B43 + (C43)*A43</f>
-        <v>823881825.84953916</v>
+        <f>(C43)*A43*LOG10(A43) + B43*C43</f>
+        <v>260588182.58495393</v>
       </c>
       <c r="I43">
         <v>1.839</v>
@@ -6638,8 +6929,8 @@
         <v>6.0629999999999997</v>
       </c>
       <c r="H44">
-        <f>(LOG10(A44)*C44)*B44 + (C44)*A44</f>
-        <v>1083000000</v>
+        <f>(C44)*A44*LOG10(A44) + B44*C44</f>
+        <v>282000000</v>
       </c>
       <c r="I44">
         <v>6.0629999999999997</v>
@@ -6647,128 +6938,128 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="B45">
-        <v>300000</v>
+        <v>900000</v>
       </c>
       <c r="C45">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E45">
-        <v>2.4550000000000001</v>
+        <v>4.6630000000000003</v>
       </c>
       <c r="H45">
-        <f>(LOG10(A45)*C45)*B45 + (C45)*A45</f>
-        <v>1089000000</v>
+        <f>(C45)*A45*LOG10(A45) + B45*C45</f>
+        <v>295806179.97398388</v>
       </c>
       <c r="I45">
-        <v>2.4550000000000001</v>
+        <v>4.6630000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B46">
-        <v>900000</v>
+        <v>300000</v>
       </c>
       <c r="C46">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E46">
-        <v>4.6630000000000003</v>
+        <v>2.4550000000000001</v>
       </c>
       <c r="H46">
-        <f>(LOG10(A46)*C46)*B46 + (C46)*A46</f>
-        <v>1167278098.8292751</v>
+        <f>(C46)*A46*LOG10(A46) + B46*C46</f>
+        <v>306000000</v>
       </c>
       <c r="I46">
-        <v>4.6630000000000003</v>
+        <v>2.4550000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="B47">
-        <v>300000</v>
+        <v>900000</v>
       </c>
       <c r="C47">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E47">
-        <v>2.5939999999999999</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="H47">
-        <f>(LOG10(A47)*C47)*B47 + (C47)*A47</f>
-        <v>1179278098.8292749</v>
+        <f>(C47)*A47*LOG10(A47) + B47*C47</f>
+        <v>310294091.29247695</v>
       </c>
       <c r="I47">
-        <v>2.5939999999999999</v>
+        <v>4.1050000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B48">
-        <v>900000</v>
+        <v>300000</v>
       </c>
       <c r="C48">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E48">
-        <v>4.1050000000000004</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="H48">
-        <f>(LOG10(A48)*C48)*B48 + (C48)*A48</f>
-        <v>1217822738.7743087</v>
+        <f>(C48)*A48*LOG10(A48) + B48*C48</f>
+        <v>347418539.92195165</v>
       </c>
       <c r="I48">
-        <v>4.1050000000000004</v>
+        <v>2.5939999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="B49">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="C49">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E49">
-        <v>2.68</v>
+        <v>4.601</v>
       </c>
       <c r="H49">
-        <f>(LOG10(A49)*C49)*B49 + (C49)*A49</f>
-        <v>1235822738.7743089</v>
+        <f>(C49)*A49*LOG10(A49) + B49*C49</f>
+        <v>384000000</v>
       </c>
       <c r="I49">
-        <v>2.68</v>
+        <v>4.601</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="B50">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="C50">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E50">
-        <v>4.601</v>
+        <v>2.68</v>
       </c>
       <c r="H50">
-        <f>(LOG10(A50)*C50)*B50 + (C50)*A50</f>
-        <v>1446000000</v>
+        <f>(C50)*A50*LOG10(A50) + B50*C50</f>
+        <v>390882273.87743092</v>
       </c>
       <c r="I50">
-        <v>4.601</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -6785,8 +7076,8 @@
         <v>4.2889999999999997</v>
       </c>
       <c r="H51">
-        <f>(LOG10(A51)*C51)*B51 + (C51)*A51</f>
-        <v>1560370798.4390333</v>
+        <f>(C51)*A51*LOG10(A51) + B51*C51</f>
+        <v>411612359.94796777</v>
       </c>
       <c r="I51">
         <v>4.2889999999999997</v>
@@ -6806,8 +7097,8 @@
         <v>4.0970000000000004</v>
       </c>
       <c r="H52">
-        <f>(LOG10(A52)*C52)*B52 + (C52)*A52</f>
-        <v>1629763651.6990783</v>
+        <f>(C52)*A52*LOG10(A52) + B52*C52</f>
+        <v>440588182.5849539</v>
       </c>
       <c r="I52">
         <v>4.0970000000000004</v>
@@ -6827,8 +7118,8 @@
         <v>8.5449999999999999</v>
       </c>
       <c r="H53">
-        <f>(LOG10(A53)*C53)*B53 + (C53)*A53</f>
-        <v>2166000000</v>
+        <f>(C53)*A53*LOG10(A53) + B53*C53</f>
+        <v>564000000</v>
       </c>
       <c r="I53">
         <v>8.5449999999999999</v>
@@ -6848,8 +7139,8 @@
         <v>5.9809999999999999</v>
       </c>
       <c r="H54">
-        <f>(LOG10(A54)*C54)*B54 + (C54)*A54</f>
-        <v>2169000000</v>
+        <f>(C54)*A54*LOG10(A54) + B54*C54</f>
+        <v>576000000</v>
       </c>
       <c r="I54">
         <v>5.9809999999999999</v>
@@ -6869,8 +7160,8 @@
         <v>7.165</v>
       </c>
       <c r="H55">
-        <f>(LOG10(A55)*C55)*B55 + (C55)*A55</f>
-        <v>2334556197.6585503</v>
+        <f>(C55)*A55*LOG10(A55) + B55*C55</f>
+        <v>591612359.94796777</v>
       </c>
       <c r="I55">
         <v>7.165</v>
@@ -6890,8 +7181,8 @@
         <v>5.86</v>
       </c>
       <c r="H56">
-        <f>(LOG10(A56)*C56)*B56 + (C56)*A56</f>
-        <v>2340556197.6585498</v>
+        <f>(C56)*A56*LOG10(A56) + B56*C56</f>
+        <v>617418539.92195165</v>
       </c>
       <c r="I56">
         <v>5.86</v>
@@ -6911,8 +7202,8 @@
         <v>6.734</v>
       </c>
       <c r="H57">
-        <f>(LOG10(A57)*C57)*B57 + (C57)*A57</f>
-        <v>2435645477.5486174</v>
+        <f>(C57)*A57*LOG10(A57) + B57*C57</f>
+        <v>620588182.5849539</v>
       </c>
       <c r="I57">
         <v>6.734</v>
@@ -6932,8 +7223,8 @@
         <v>6.085</v>
       </c>
       <c r="H58">
-        <f>(LOG10(A58)*C58)*B58 + (C58)*A58</f>
-        <v>2444645477.5486178</v>
+        <f>(C58)*A58*LOG10(A58) + B58*C58</f>
+        <v>660882273.87743092</v>
       </c>
       <c r="I58">
         <v>6.085</v>
@@ -6953,8 +7244,8 @@
         <v>10.778</v>
       </c>
       <c r="H59">
-        <f>(LOG10(A59)*C59)*B59 + (C59)*A59</f>
-        <v>3249000000</v>
+        <f>(C59)*A59*LOG10(A59) + B59*C59</f>
+        <v>846000000</v>
       </c>
       <c r="I59">
         <v>10.778</v>
@@ -6974,8 +7265,8 @@
         <v>9.4890000000000008</v>
       </c>
       <c r="H60">
-        <f>(LOG10(A60)*C60)*B60 + (C60)*A60</f>
-        <v>3501834296.4878249</v>
+        <f>(C60)*A60*LOG10(A60) + B60*C60</f>
+        <v>887418539.92195165</v>
       </c>
       <c r="I60">
         <v>9.4890000000000008</v>
@@ -6995,8 +7286,8 @@
         <v>9.6389999999999993</v>
       </c>
       <c r="H61">
-        <f>(LOG10(A61)*C61)*B61 + (C61)*A61</f>
-        <v>3653468216.322927</v>
+        <f>(C61)*A61*LOG10(A61) + B61*C61</f>
+        <v>930882273.87743092</v>
       </c>
       <c r="I61">
         <v>9.6389999999999993</v>
@@ -7004,10 +7295,10 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -7228,10 +7519,10 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -7452,10 +7743,10 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -7675,8 +7966,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:I61">
-    <sortCondition ref="H35:H61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:I62">
+    <sortCondition ref="H35:H62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
